--- a/src/assets/excell/employee.xlsx
+++ b/src/assets/excell/employee.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_89E882D5DB3C2B3E222526C5BE600CB79E81AF7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405097EB-83DA-4125-941A-796CF195569E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>نام</t>
   </si>
@@ -107,13 +117,76 @@
   </si>
   <si>
     <t>شماره شبا</t>
+  </si>
+  <si>
+    <t>زن</t>
+  </si>
+  <si>
+    <t>مرد</t>
+  </si>
+  <si>
+    <t>مجرد</t>
+  </si>
+  <si>
+    <t>متاهل</t>
+  </si>
+  <si>
+    <t>بی سواد</t>
+  </si>
+  <si>
+    <t>دوره ابتدایی</t>
+  </si>
+  <si>
+    <t>سیکل</t>
+  </si>
+  <si>
+    <t>دیپلم</t>
+  </si>
+  <si>
+    <t>کاردانی</t>
+  </si>
+  <si>
+    <t>کارشناسی</t>
+  </si>
+  <si>
+    <t>کارشناسی ارشد</t>
+  </si>
+  <si>
+    <t>دکترا</t>
+  </si>
+  <si>
+    <t>هیچکدام</t>
+  </si>
+  <si>
+    <t>اتمام</t>
+  </si>
+  <si>
+    <t>مشمول</t>
+  </si>
+  <si>
+    <t>معاف</t>
+  </si>
+  <si>
+    <t>آخرین مدرک تحصیلی</t>
+  </si>
+  <si>
+    <t>وضعیت نظام وظیفه</t>
+  </si>
+  <si>
+    <t>720 روز بیمه</t>
+  </si>
+  <si>
+    <t>بلی</t>
+  </si>
+  <si>
+    <t>خیر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,10 +235,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -449,147 +532,329 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:XFD3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.7109375" style="2" customWidth="1"/>
+    <col min="19" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="28.140625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="18" customHeight="1"/>
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$F$2:$F$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$G$2:$G$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>$N$2:$N$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$P$2:$P$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>$W$2:$W$5</formula1>
-    </dataValidation>
-  </dataValidations>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>data!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>data!$A$6:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>data!$A$10:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>data!$A$26:$A$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>P1:P1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>data!$A$20:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>W1:W1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE40AF12-A5C5-4C68-8340-C5674126D6C4}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
